--- a/ThermoProp.xlsx
+++ b/ThermoProp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjorn/Documents/MATLAB/git/MATLABToolKit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjorn/Documents/MATLAB/Git/MATLABToolKit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84DC01B-8018-2F4B-9602-5BBB1F834AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DE8E34-1C57-8648-89F0-140DDC6573B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="21600" windowHeight="16460" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="17" r:id="rId1"/>
@@ -14229,7 +14229,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15416,7 +15416,7 @@
         <v>273.24</v>
       </c>
       <c r="J35">
-        <v>4.4319999999999998E-2</v>
+        <v>0.44319999999999998</v>
       </c>
       <c r="K35">
         <v>0.90039999999999998</v>
@@ -15647,8 +15647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16647,10 +16647,13 @@
   <dimension ref="A1:F260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
@@ -43260,7 +43263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
@@ -47645,8 +47648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53249,7 +53252,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
